--- a/src/excel-data/chukoku.xlsx
+++ b/src/excel-data/chukoku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1655857C-79BE-6940-A30D-912014563EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98534689-C804-424B-990C-6EF91AF3BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,19 +37,7 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
-    <t>price_adult_phone</t>
-  </si>
-  <si>
     <t>price_child_regular</t>
-  </si>
-  <si>
-    <t>price_child_advance</t>
-  </si>
-  <si>
-    <t>price_child_phone</t>
   </si>
   <si>
     <t>price_under25</t>
@@ -135,13 +123,33 @@
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_child_phone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_adult_phone</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +162,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,13 +190,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,15 +537,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,148 +568,480 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>830</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="G2">
         <v>420</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/chukoku.xlsx
+++ b/src/excel-data/chukoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98534689-C804-424B-990C-6EF91AF3BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8066523B-92BA-DD4A-8437-9F3E743FF880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
   <si>
     <t>sortOrder</t>
   </si>
@@ -95,15 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sapporo-subway-1day</t>
-  </si>
-  <si>
-    <t>札幌市营地铁全线一日券</t>
-  </si>
-  <si>
-    <t>札幌地铁全线路的一日券，适合札幌市内一日游。</t>
-  </si>
-  <si>
     <t>现金支付; 购票机可购买</t>
   </si>
   <si>
@@ -111,12 +102,6 @@
   </si>
   <si>
     <t>北海道</t>
-  </si>
-  <si>
-    <t>/images/coverage/sapporo-subway-1day.png</t>
-  </si>
-  <si>
-    <t>不问国籍所有游客皆可购买</t>
   </si>
   <si>
     <t>地铁</t>
@@ -143,13 +128,493 @@
   <si>
     <t>price_adult_phone</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JRWest-Okayama-Kagawa-Wide-Pass</t>
+  </si>
+  <si>
+    <t>岡山・香川ワイドパス</t>
+  </si>
+  <si>
+    <t>冈山·香川宽域通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Okayama-Kagawa-Wide-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Okayama-Wide-Pass</t>
+  </si>
+  <si>
+    <t>岡山ワイドパス</t>
+  </si>
+  <si>
+    <t>冈山宽域通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Okayama-Wide-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Setouchi-Pass</t>
+  </si>
+  <si>
+    <t>せとうちパス</t>
+  </si>
+  <si>
+    <t>瀬户内通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Setouchi-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Okayama-Kurashiki-tabiwa-Gururin-Pass</t>
+  </si>
+  <si>
+    <t>岡山・倉敷tabiwaぐるりんパス</t>
+  </si>
+  <si>
+    <t>冈山·仓敷tabiwa环游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Okayama-Kurashiki-tabiwa-Gururin-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Hiroshima-Wide-Pass</t>
+  </si>
+  <si>
+    <t>広島ワイドパス</t>
+  </si>
+  <si>
+    <t>广岛宽域通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Hiroshima-Wide-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Miyajima-Setouchi-tabiwa-Gururin-Pass</t>
+  </si>
+  <si>
+    <t>宮島・瀬戸内tabiwaぐるりんパス</t>
+  </si>
+  <si>
+    <t>宫岛·濑户内tabiwa环游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Miyajima-Setouchi-tabiwa-Gururin-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Hiroshima-Matsuyama-Pass</t>
+  </si>
+  <si>
+    <t>広島・松山周遊パス</t>
+  </si>
+  <si>
+    <t>广岛·松山周游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Hiroshima-Matsuyama-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Yamaguchi-Central-Pass</t>
+  </si>
+  <si>
+    <t>山口セントラルパス</t>
+  </si>
+  <si>
+    <t>山口中央通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Yamaguchi-Central-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Shimonoseki-Nagato-tabiwa-Gururin-Pass</t>
+  </si>
+  <si>
+    <t>下関・長門tabiwaぐるりんパス</t>
+  </si>
+  <si>
+    <t>下关·长门tabiwa环游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Shimonoseki-Nagato-tabiwa-Gururin-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Sanin-Nonbiri-Pass</t>
+  </si>
+  <si>
+    <t>山陰のんびりパス</t>
+  </si>
+  <si>
+    <t>山阴悠闲通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Sanin-Nonbiri-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Tottori-Nonbiri-Pass</t>
+  </si>
+  <si>
+    <t>鳥取のんびりパス</t>
+  </si>
+  <si>
+    <t>鸟取悠闲通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Tottori-Nonbiri-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Matsue-Izumo-tabiwa-Gururin-Pass</t>
+  </si>
+  <si>
+    <t>松江・出雲tabiwaぐるりんパス</t>
+  </si>
+  <si>
+    <t>松江·出云tabiwa环游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Matsue-Izumo-tabiwa-Gururin-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Tottori-East-Railway-Bus-1Day-Pass</t>
+  </si>
+  <si>
+    <t>鳥取県東部鉄道・バス1DAY共通パス</t>
+  </si>
+  <si>
+    <t>鸟取县东部铁路·巴士一日共通通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Tottori-East-Railway-Bus-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Tottori-Mystery-Tour-tabiwa-Pass</t>
+  </si>
+  <si>
+    <t>鳥取ミステリーツアーtabiwaパス</t>
+  </si>
+  <si>
+    <t>鸟取神秘旅游tabiwa通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Tottori-Mystery-Tour-tabiwa-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Tabiwa-Tsuyama-Inbi-Pass</t>
+  </si>
+  <si>
+    <t>tabiwa 津山因美パス</t>
+  </si>
+  <si>
+    <t>tabiwa 津山因美通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Tabiwa-Tsuyama-Inbi-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Tabiwa-Miyajima-Anago-Kippu</t>
+  </si>
+  <si>
+    <t>tabiwa宮島あなごきっぷ</t>
+  </si>
+  <si>
+    <t>tabiwa宫岛穴子票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Tabiwa-Miyajima-Anago-Kippu.png</t>
+  </si>
+  <si>
+    <t>JRWest-Tabiwa-Kure-Kaiji-Curry-Kippu</t>
+  </si>
+  <si>
+    <t>tabiwa呉海自カレーきっぷ</t>
+  </si>
+  <si>
+    <t>tabiwa吴海自咖喱票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Tabiwa-Kure-Kaiji-Curry-Kippu.png</t>
+  </si>
+  <si>
+    <t>JRWest-Yamaguchi-Fuku-No-Kuni-Pass</t>
+  </si>
+  <si>
+    <t>山口ふくの国周遊パス</t>
+  </si>
+  <si>
+    <t>山口福国周游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Yamaguchi-Fuku-No-Kuni-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Okayama-Takamatsu-Pass</t>
+  </si>
+  <si>
+    <t>岡山・高松周遊パス</t>
+  </si>
+  <si>
+    <t>冈山·高松周游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Okayama-Takamatsu-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Bus-Rail-Double-Free-Pass-2Day</t>
+  </si>
+  <si>
+    <t>バス＆レール どっちも乗り放題パス２デイ</t>
+  </si>
+  <si>
+    <t>巴士&amp;铁路二日无限通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Bus-Rail-Double-Free-Pass-2Day.png</t>
+  </si>
+  <si>
+    <t>Chizu-Kyuko-Chizu-Line-Ordinary-Train-1Day-Ticket</t>
+  </si>
+  <si>
+    <t>智頭線普通列車１日乗車券</t>
+  </si>
+  <si>
+    <t>智头线普通列车一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Chizu-Kyuko-Chizu-Line-Ordinary-Train-1Day-Ticket.png</t>
+  </si>
+  <si>
+    <t>Wakasa-Railway-1Day-Free</t>
+  </si>
+  <si>
+    <t>１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>若狭铁道一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Wakasa-Railway-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Wakasa-Han-Joho-Techo-Pass</t>
+  </si>
+  <si>
+    <t>鳥取藩乗放題手形</t>
+  </si>
+  <si>
+    <t>鸟取藩无限乘车手形</t>
+  </si>
+  <si>
+    <t>/images/coverage/Wakasa-Han-Joho-Techo-Pass.png</t>
+  </si>
+  <si>
+    <t>Wakasa-Parent-Child-Ticket</t>
+  </si>
+  <si>
+    <t>親子きっぷ</t>
+  </si>
+  <si>
+    <t>亲子票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Wakasa-Parent-Child-Ticket.png</t>
+  </si>
+  <si>
+    <t>Ichibata-Railway-Free-Ticket</t>
+  </si>
+  <si>
+    <t>一畑電車フリー乗車券</t>
+  </si>
+  <si>
+    <t>一畑电车自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ichibata-Railway-Free-Ticket.png</t>
+  </si>
+  <si>
+    <t>Ichibata-Railway-Silver-Kippu</t>
+  </si>
+  <si>
+    <t>一畑電車シルバーきっぷ</t>
+  </si>
+  <si>
+    <t>一畑电车银发票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Ichibata-Railway-Silver-Kippu.png</t>
+  </si>
+  <si>
+    <t>Vogel-Free-Ticket</t>
+  </si>
+  <si>
+    <t>フォーゲル＆フリーチケット</t>
+  </si>
+  <si>
+    <t>Vogel &amp;自由票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Vogel-Free-Ticket.png</t>
+  </si>
+  <si>
+    <t>Kodai-Izumo-Rekihaku-Ticket-Free</t>
+  </si>
+  <si>
+    <t>古代出雲歴博入場券＆フリーチケット</t>
+  </si>
+  <si>
+    <t>古代出云历史博物馆入场券&amp;自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kodai-Izumo-Rekihaku-Ticket-Free.png</t>
+  </si>
+  <si>
+    <t>Matsue-Izumo-Travel-PASS-2Days</t>
+  </si>
+  <si>
+    <t>松江・出雲 旅PASS 2Days</t>
+  </si>
+  <si>
+    <t>松江·出云旅行票 2日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Matsue-Izumo-Travel-PASS-2Days.png</t>
+  </si>
+  <si>
+    <t>Okayama-Tram-1Day-Ticket</t>
+  </si>
+  <si>
+    <t>路面電車１日乗車券</t>
+  </si>
+  <si>
+    <t>冈山电车一日票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Okayama-Tram-1Day-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroshima-Astram-1Day-Ticket</t>
+  </si>
+  <si>
+    <t>一日乗車券（広島高速交通）</t>
+  </si>
+  <si>
+    <t>广岛高速交通一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroshima-Astram-1Day-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroden-Train-1Day-Ticket</t>
+  </si>
+  <si>
+    <t>電車一日乗車券</t>
+  </si>
+  <si>
+    <t>广电电车一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroden-Train-1Day-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroden-Mobile-Train-Ticket</t>
+  </si>
+  <si>
+    <t>広電電車乗車券（スマートフォン）</t>
+  </si>
+  <si>
+    <t>广电电车乘车券（手机票）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroden-Mobile-Train-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroden-Train-Boat-1Day-Ticket</t>
+  </si>
+  <si>
+    <t>一日乗車乗船券</t>
+  </si>
+  <si>
+    <t>广电电车+船一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroden-Train-Boat-1Day-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroden-Mobile-Train-Boat-Ticket</t>
+  </si>
+  <si>
+    <t>広電電車乗車乗船券（スマートフォン）</t>
+  </si>
+  <si>
+    <t>广电电车+船乘车券（手机票）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroden-Mobile-Train-Boat-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroshima-Tabi-Pass-Paper-Ticket</t>
+  </si>
+  <si>
+    <t>広島たびパス(紙チケット)</t>
+  </si>
+  <si>
+    <t>广岛旅游通票（纸票）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroshima-Tabi-Pass-Paper-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroshima-Tabi-Pass-Digital-Ticket</t>
+  </si>
+  <si>
+    <t>広島たびパス(デジタルチケット)</t>
+  </si>
+  <si>
+    <t>广岛旅游通票（电子票）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroshima-Tabi-Pass-Digital-Ticket.png</t>
+  </si>
+  <si>
+    <t>Hiroshima-Tabi-Pass-Middle-Area</t>
+  </si>
+  <si>
+    <t>広島たびパス(ミドルエリア)</t>
+  </si>
+  <si>
+    <t>广岛旅游通票（中区）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroshima-Tabi-Pass-Middle-Area.png</t>
+  </si>
+  <si>
+    <t>Hiroden-Digital-City-Pass</t>
+  </si>
+  <si>
+    <t>デジタルシティパス</t>
+  </si>
+  <si>
+    <t>广电数字城市通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hiroden-Digital-City-Pass.png</t>
+  </si>
+  <si>
+    <t>Nishikigawa-Railway-1Day-Free</t>
+  </si>
+  <si>
+    <t>錦川鉄道１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>锦川铁道一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nishikigawa-Railway-1Day-Free.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +636,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,9 +665,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -537,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -551,7 +1023,7 @@
     <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,16 +1040,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -586,10 +1058,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
@@ -634,42 +1106,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:29">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>830</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -681,16 +1129,13 @@
         <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
         <v>21</v>
@@ -699,79 +1144,608 @@
         <v>21</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="11:13">
+      <c r="AC2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="T20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="11:13">
+      <c r="T21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="11:13">
+      <c r="T22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="11:13">
+      <c r="T23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="11:13">
+      <c r="T24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="11:13">
+      <c r="T25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="11:13">
+      <c r="T26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="11:13">
+      <c r="T27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="11:13">
+      <c r="T28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="11:13">
+      <c r="T29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="11:13">
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="T30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="B36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="B38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13">
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="K97">
+        <v>2330</v>
+      </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98">
-        <v>2330</v>
-      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
     </row>
     <row r="99" spans="11:13">
       <c r="K99" s="1"/>
@@ -1037,11 +2011,6 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="11:13">
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/chukoku.xlsx
+++ b/src/excel-data/chukoku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8066523B-92BA-DD4A-8437-9F3E743FF880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A1CE8-8319-8347-886C-ED196EC28766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chukoku周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>sortOrder</t>
   </si>
@@ -101,15 +101,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>地铁</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>price_over65</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,255 +121,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JRWest-Okayama-Kagawa-Wide-Pass</t>
-  </si>
-  <si>
-    <t>岡山・香川ワイドパス</t>
-  </si>
-  <si>
-    <t>冈山·香川宽域通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Okayama-Kagawa-Wide-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Okayama-Wide-Pass</t>
-  </si>
-  <si>
-    <t>岡山ワイドパス</t>
-  </si>
-  <si>
-    <t>冈山宽域通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Okayama-Wide-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Setouchi-Pass</t>
-  </si>
-  <si>
-    <t>せとうちパス</t>
-  </si>
-  <si>
-    <t>瀬户内通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Setouchi-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Okayama-Kurashiki-tabiwa-Gururin-Pass</t>
-  </si>
-  <si>
-    <t>岡山・倉敷tabiwaぐるりんパス</t>
-  </si>
-  <si>
-    <t>冈山·仓敷tabiwa环游通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Okayama-Kurashiki-tabiwa-Gururin-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Hiroshima-Wide-Pass</t>
-  </si>
-  <si>
-    <t>広島ワイドパス</t>
-  </si>
-  <si>
-    <t>广岛宽域通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Hiroshima-Wide-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Miyajima-Setouchi-tabiwa-Gururin-Pass</t>
-  </si>
-  <si>
-    <t>宮島・瀬戸内tabiwaぐるりんパス</t>
-  </si>
-  <si>
-    <t>宫岛·濑户内tabiwa环游通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Miyajima-Setouchi-tabiwa-Gururin-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Hiroshima-Matsuyama-Pass</t>
-  </si>
-  <si>
-    <t>広島・松山周遊パス</t>
-  </si>
-  <si>
-    <t>广岛·松山周游通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Hiroshima-Matsuyama-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Yamaguchi-Central-Pass</t>
-  </si>
-  <si>
-    <t>山口セントラルパス</t>
-  </si>
-  <si>
-    <t>山口中央通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Yamaguchi-Central-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Shimonoseki-Nagato-tabiwa-Gururin-Pass</t>
-  </si>
-  <si>
-    <t>下関・長門tabiwaぐるりんパス</t>
-  </si>
-  <si>
-    <t>下关·长门tabiwa环游通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Shimonoseki-Nagato-tabiwa-Gururin-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Sanin-Nonbiri-Pass</t>
-  </si>
-  <si>
-    <t>山陰のんびりパス</t>
-  </si>
-  <si>
-    <t>山阴悠闲通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Sanin-Nonbiri-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Tottori-Nonbiri-Pass</t>
-  </si>
-  <si>
-    <t>鳥取のんびりパス</t>
-  </si>
-  <si>
-    <t>鸟取悠闲通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Tottori-Nonbiri-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Matsue-Izumo-tabiwa-Gururin-Pass</t>
-  </si>
-  <si>
-    <t>松江・出雲tabiwaぐるりんパス</t>
-  </si>
-  <si>
-    <t>松江·出云tabiwa环游通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Matsue-Izumo-tabiwa-Gururin-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Tottori-East-Railway-Bus-1Day-Pass</t>
-  </si>
-  <si>
-    <t>鳥取県東部鉄道・バス1DAY共通パス</t>
-  </si>
-  <si>
-    <t>鸟取县东部铁路·巴士一日共通通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Tottori-East-Railway-Bus-1Day-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Tottori-Mystery-Tour-tabiwa-Pass</t>
-  </si>
-  <si>
-    <t>鳥取ミステリーツアーtabiwaパス</t>
-  </si>
-  <si>
-    <t>鸟取神秘旅游tabiwa通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Tottori-Mystery-Tour-tabiwa-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Tabiwa-Tsuyama-Inbi-Pass</t>
-  </si>
-  <si>
-    <t>tabiwa 津山因美パス</t>
-  </si>
-  <si>
-    <t>tabiwa 津山因美通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Tabiwa-Tsuyama-Inbi-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Tabiwa-Miyajima-Anago-Kippu</t>
-  </si>
-  <si>
-    <t>tabiwa宮島あなごきっぷ</t>
-  </si>
-  <si>
-    <t>tabiwa宫岛穴子票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Tabiwa-Miyajima-Anago-Kippu.png</t>
-  </si>
-  <si>
-    <t>JRWest-Tabiwa-Kure-Kaiji-Curry-Kippu</t>
-  </si>
-  <si>
-    <t>tabiwa呉海自カレーきっぷ</t>
-  </si>
-  <si>
-    <t>tabiwa吴海自咖喱票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Tabiwa-Kure-Kaiji-Curry-Kippu.png</t>
-  </si>
-  <si>
-    <t>JRWest-Yamaguchi-Fuku-No-Kuni-Pass</t>
-  </si>
-  <si>
-    <t>山口ふくの国周遊パス</t>
-  </si>
-  <si>
-    <t>山口福国周游通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Yamaguchi-Fuku-No-Kuni-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Okayama-Takamatsu-Pass</t>
-  </si>
-  <si>
-    <t>岡山・高松周遊パス</t>
-  </si>
-  <si>
-    <t>冈山·高松周游通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Okayama-Takamatsu-Pass.png</t>
-  </si>
-  <si>
-    <t>JRWest-Bus-Rail-Double-Free-Pass-2Day</t>
-  </si>
-  <si>
-    <t>バス＆レール どっちも乗り放題パス２デイ</t>
-  </si>
-  <si>
-    <t>巴士&amp;铁路二日无限通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Bus-Rail-Double-Free-Pass-2Day.png</t>
-  </si>
-  <si>
     <t>Chizu-Kyuko-Chizu-Line-Ordinary-Train-1Day-Ticket</t>
   </si>
   <si>
     <t>智頭線普通列車１日乗車券</t>
   </si>
   <si>
-    <t>智头线普通列车一日乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Chizu-Kyuko-Chizu-Line-Ordinary-Train-1Day-Ticket.png</t>
   </si>
   <si>
@@ -490,18 +238,6 @@
     <t>/images/coverage/Okayama-Tram-1Day-Ticket.png</t>
   </si>
   <si>
-    <t>Hiroshima-Astram-1Day-Ticket</t>
-  </si>
-  <si>
-    <t>一日乗車券（広島高速交通）</t>
-  </si>
-  <si>
-    <t>广岛高速交通一日乘车券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Hiroshima-Astram-1Day-Ticket.png</t>
-  </si>
-  <si>
     <t>Hiroden-Train-1Day-Ticket</t>
   </si>
   <si>
@@ -520,9 +256,6 @@
     <t>広電電車乗車券（スマートフォン）</t>
   </si>
   <si>
-    <t>广电电车乘车券（手机票）</t>
-  </si>
-  <si>
     <t>/images/coverage/Hiroden-Mobile-Train-Ticket.png</t>
   </si>
   <si>
@@ -556,9 +289,6 @@
     <t>広島たびパス(紙チケット)</t>
   </si>
   <si>
-    <t>广岛旅游通票（纸票）</t>
-  </si>
-  <si>
     <t>/images/coverage/Hiroshima-Tabi-Pass-Paper-Ticket.png</t>
   </si>
   <si>
@@ -568,9 +298,6 @@
     <t>広島たびパス(デジタルチケット)</t>
   </si>
   <si>
-    <t>广岛旅游通票（电子票）</t>
-  </si>
-  <si>
     <t>/images/coverage/Hiroshima-Tabi-Pass-Digital-Ticket.png</t>
   </si>
   <si>
@@ -608,13 +335,580 @@
   </si>
   <si>
     <t>/images/coverage/Nishikigawa-Railway-1Day-Free.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>智</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>头线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>普通列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一日乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>券</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>周六、周日、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>假日</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电电车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一日券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（手机票）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电电车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>券24（手机票）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅游通票（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>票）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅游通票（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>票）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅游通票（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>票）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅游通票（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子票）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅游通票（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子票）48</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅游通票（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子票）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,6 +937,39 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -665,10 +992,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1009,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1040,16 +1371,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1058,10 +1389,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
@@ -1106,13 +1437,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="19">
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
       <c r="N2" t="s">
         <v>24</v>
       </c>
@@ -1128,609 +1468,721 @@
       <c r="R2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>760</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="19">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="E4" s="5">
+        <v>1800</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:29" ht="20">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="E5">
+        <v>760</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1800</v>
+      </c>
+      <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>22</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1700</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6">
+        <v>1800</v>
+      </c>
+      <c r="M8" s="1"/>
       <c r="T8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1900</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>22</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="E11" s="4">
+        <v>400</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="4">
+        <v>700</v>
+      </c>
+      <c r="G12" s="4">
+        <v>350</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="19">
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="4">
+        <v>600</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="19">
+      <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="4">
+        <v>700</v>
+      </c>
+      <c r="G14">
+        <v>350</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="B13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="B14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>550</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>550</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="19">
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="19">
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1500</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" ht="19">
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="19">
+      <c r="B20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29">
-      <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29">
-      <c r="B18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29">
-      <c r="B19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29">
-      <c r="B20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="T20" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="AC20" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="19">
       <c r="B21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1500</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="19">
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="T21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29">
-      <c r="B22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="E22" s="4">
+        <v>2000</v>
+      </c>
       <c r="T22" s="2" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:29">
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4500</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>22</v>
+      </c>
       <c r="T23" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:29">
       <c r="B24" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E24" s="4">
+        <v>440</v>
+      </c>
+      <c r="G24">
+        <v>220</v>
+      </c>
       <c r="T24" s="2" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:29">
       <c r="B25" s="2" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" t="s">
+        <v>22</v>
+      </c>
       <c r="T25" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:29">
-      <c r="B26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="T26" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29">
-      <c r="B27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="T27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29">
-      <c r="B28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="T28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29">
-      <c r="B29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="T29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29">
-      <c r="B30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="T30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC30" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29">
-      <c r="B31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC31" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29">
-      <c r="B32" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29">
-      <c r="B33" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29">
-      <c r="B34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC34" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="2:29">
-      <c r="B35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC35" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29">
-      <c r="B36" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29">
-      <c r="B37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29">
-      <c r="B38" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29">
-      <c r="B39" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="2:29">
-      <c r="B40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29">
-      <c r="B41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="N26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="11:13">
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="11:13">
+      <c r="K81">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="82" spans="11:13">
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="11:13">
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="11:13">
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="11:13">
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="11:13">
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="11:13">
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="11:13">
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="11:13">
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="11:13">
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="11:13">
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="11:13">
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="11:13">
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="11:13">
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="11:13">
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
     </row>
     <row r="96" spans="11:13">
       <c r="K96" s="1"/>
@@ -1738,9 +2190,9 @@
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97">
-        <v>2330</v>
-      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
     </row>
     <row r="98" spans="11:13">
       <c r="K98" s="1"/>
@@ -1931,86 +2383,6 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
-    </row>
-    <row r="136" spans="11:13">
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="11:13">
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="11:13">
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-    </row>
-    <row r="139" spans="11:13">
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-    </row>
-    <row r="140" spans="11:13">
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-    </row>
-    <row r="141" spans="11:13">
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-    </row>
-    <row r="142" spans="11:13">
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-    </row>
-    <row r="143" spans="11:13">
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-    </row>
-    <row r="144" spans="11:13">
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-    </row>
-    <row r="145" spans="11:13">
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-    </row>
-    <row r="146" spans="11:13">
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="11:13">
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-    </row>
-    <row r="148" spans="11:13">
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-    </row>
-    <row r="149" spans="11:13">
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-    </row>
-    <row r="150" spans="11:13">
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-    </row>
-    <row r="151" spans="11:13">
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/chukoku.xlsx
+++ b/src/excel-data/chukoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1A1CE8-8319-8347-886C-ED196EC28766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ABCC37-DD93-D142-837D-563351AD6579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>sortOrder</t>
   </si>
@@ -901,6 +901,10 @@
       </rPr>
       <t>72</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1340,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC135"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1354,7 +1358,7 @@
     <col min="12" max="13" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,8 +1440,11 @@
       <c r="AA1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="19">
+      <c r="AB1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="19">
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1471,11 +1478,11 @@
       <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:32">
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
@@ -1509,11 +1516,11 @@
       <c r="T3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="19">
+    <row r="4" spans="1:32" ht="19">
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1544,11 +1551,11 @@
       <c r="T4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20">
+    <row r="5" spans="1:32" ht="20">
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
@@ -1576,11 +1583,11 @@
       <c r="T5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:32">
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1614,11 +1621,11 @@
       <c r="T6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:32">
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
@@ -1649,11 +1656,11 @@
       <c r="T7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:32">
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1674,11 +1681,11 @@
       <c r="T8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:32">
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
@@ -1709,11 +1716,11 @@
       <c r="T9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:32">
       <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1747,11 +1754,11 @@
       <c r="T10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:32">
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1782,11 +1789,11 @@
       <c r="T11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:32">
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1817,11 +1824,11 @@
       <c r="T12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="19">
+    <row r="13" spans="1:32" ht="19">
       <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
@@ -1837,11 +1844,11 @@
       <c r="T13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="19">
+    <row r="14" spans="1:32" ht="19">
       <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1857,11 +1864,11 @@
       <c r="T14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:32">
       <c r="B15" s="2" t="s">
         <v>77</v>
       </c>
@@ -1877,11 +1884,11 @@
       <c r="T15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:32">
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1897,11 +1904,11 @@
       <c r="T16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:29" ht="19">
+    <row r="17" spans="2:32" ht="19">
       <c r="B17" s="2" t="s">
         <v>85</v>
       </c>
@@ -1914,11 +1921,11 @@
       <c r="T17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:29" ht="19">
+    <row r="18" spans="2:32" ht="19">
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
@@ -1931,11 +1938,11 @@
       <c r="T18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AF18" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="19">
+    <row r="19" spans="2:32" ht="19">
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -1948,11 +1955,11 @@
       <c r="T19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:29" ht="19">
+    <row r="20" spans="2:32" ht="19">
       <c r="B20" s="2" t="s">
         <v>88</v>
       </c>
@@ -1965,11 +1972,11 @@
       <c r="T20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="19">
+    <row r="21" spans="2:32" ht="19">
       <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
@@ -1982,11 +1989,11 @@
       <c r="T21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="19">
+    <row r="22" spans="2:32" ht="19">
       <c r="B22" s="2" t="s">
         <v>88</v>
       </c>
@@ -1999,11 +2006,11 @@
       <c r="T22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:32">
       <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
@@ -2031,11 +2038,11 @@
       <c r="T23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:32">
       <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
@@ -2051,11 +2058,11 @@
       <c r="T24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AF24" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:32">
       <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
@@ -2083,11 +2090,11 @@
       <c r="T25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:32">
       <c r="N26" t="s">
         <v>24</v>
       </c>

--- a/src/excel-data/chukoku.xlsx
+++ b/src/excel-data/chukoku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ABCC37-DD93-D142-837D-563351AD6579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B472BD2E-F39A-3A4C-9C8B-73DC1202030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>sortOrder</t>
   </si>
@@ -95,12 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>现金支付; 购票机可购买</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>price_over65</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -136,9 +130,6 @@
     <t>１日フリー乗車券</t>
   </si>
   <si>
-    <t>若狭铁道一日自由乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Wakasa-Railway-1Day-Free.png</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>一畑電車フリー乗車券</t>
   </si>
   <si>
-    <t>一畑电车自由乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Ichibata-Railway-Free-Ticket.png</t>
   </si>
   <si>
@@ -232,21 +220,12 @@
     <t>路面電車１日乗車券</t>
   </si>
   <si>
-    <t>冈山电车一日票</t>
-  </si>
-  <si>
     <t>/images/coverage/Okayama-Tram-1Day-Ticket.png</t>
   </si>
   <si>
     <t>Hiroden-Train-1Day-Ticket</t>
   </si>
   <si>
-    <t>電車一日乗車券</t>
-  </si>
-  <si>
-    <t>广电电车一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Hiroden-Train-1Day-Ticket.png</t>
   </si>
   <si>
@@ -262,12 +241,6 @@
     <t>Hiroden-Train-Boat-1Day-Ticket</t>
   </si>
   <si>
-    <t>一日乗車乗船券</t>
-  </si>
-  <si>
-    <t>广电电车+船一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Hiroden-Train-Boat-1Day-Ticket.png</t>
   </si>
   <si>
@@ -277,9 +250,6 @@
     <t>広電電車乗車乗船券（スマートフォン）</t>
   </si>
   <si>
-    <t>广电电车+船乘车券（手机票）</t>
-  </si>
-  <si>
     <t>/images/coverage/Hiroden-Mobile-Train-Boat-Ticket.png</t>
   </si>
   <si>
@@ -331,212 +301,31 @@
     <t>錦川鉄道１日フリーきっぷ</t>
   </si>
   <si>
-    <t>锦川铁道一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Nishikigawa-Railway-1Day-Free.png</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>智</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+      <t>周六、周日、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>头线</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>普通列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一日乘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>券</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>周六、周日、</t>
+      <t>节</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>节</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>假日</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>广</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>电电车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>一日券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（手机票）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>广</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>电电车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>乘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>券24（手机票）</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -906,13 +695,76 @@
   <si>
     <t>ticket_note</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冈山电车1日票</t>
+  </si>
+  <si>
+    <t>广电电车1日券</t>
+  </si>
+  <si>
+    <t>電車1日乗車券</t>
+  </si>
+  <si>
+    <t>广电电车1日券8（手机票）</t>
+  </si>
+  <si>
+    <t>广电电车+船1日券</t>
+  </si>
+  <si>
+    <t>1日乗車乗船券</t>
+  </si>
+  <si>
+    <t>锦川铁道1日自由券</t>
+  </si>
+  <si>
+    <t>智头线普通列车1日周游券</t>
+  </si>
+  <si>
+    <t>若狭铁道1日自由周游券</t>
+  </si>
+  <si>
+    <t>一畑电车自由周游券</t>
+  </si>
+  <si>
+    <t>广电电车周游券24（手机票）</t>
+  </si>
+  <si>
+    <t>广电电车+船周游券（手机票）</t>
+  </si>
+  <si>
+    <t>现金购票; 电子购票；车站购票；Suica使用可</t>
+    <rPh sb="16" eb="17">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ke</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 电子购票；车站购票；</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不问国籍所有游客皆可购买</t>
+  </si>
+  <si>
+    <t>普通电车</t>
+    <rPh sb="0" eb="4">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -974,13 +826,32 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黒体-簡 ミディアム"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黒体-簡 ミディアム"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -996,7 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1004,6 +875,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1346,16 +1220,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="21.83203125" customWidth="1"/>
     <col min="12" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="38.5" customWidth="1"/>
+    <col min="20" max="20" width="32.83203125" customWidth="1"/>
+    <col min="21" max="21" width="33.33203125" customWidth="1"/>
+    <col min="22" max="22" width="32.83203125" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1375,16 +1256,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -1393,10 +1274,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>23</v>
@@ -1441,15 +1322,15 @@
         <v>20</v>
       </c>
       <c r="AB1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4">
         <v>2000</v>
@@ -1460,11 +1341,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
+      <c r="N2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>21</v>
@@ -1476,18 +1357,30 @@
         <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>3</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>760</v>
@@ -1498,11 +1391,11 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="N3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>21</v>
@@ -1514,18 +1407,18 @@
         <v>22</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="19">
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5">
         <v>1800</v>
@@ -1533,8 +1426,8 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" t="s">
-        <v>24</v>
+      <c r="N4" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -1549,18 +1442,18 @@
         <v>22</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="20">
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>760</v>
@@ -1568,31 +1461,31 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
+      <c r="N5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="E6" s="4">
         <v>1800</v>
@@ -1603,11 +1496,11 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
+      <c r="N6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="P6" t="s">
         <v>21</v>
@@ -1619,18 +1512,18 @@
         <v>22</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4">
         <v>1700</v>
@@ -1638,11 +1531,11 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
+      <c r="N7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>21</v>
@@ -1654,18 +1547,18 @@
         <v>22</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4">
         <v>2300</v>
@@ -1678,19 +1571,25 @@
         <v>1800</v>
       </c>
       <c r="M8" s="1"/>
+      <c r="N8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
       <c r="T8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4">
         <v>1900</v>
@@ -1698,11 +1597,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
+      <c r="N9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="P9" t="s">
         <v>21</v>
@@ -1714,18 +1613,18 @@
         <v>22</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4">
         <v>3000</v>
@@ -1736,8 +1635,8 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" t="s">
-        <v>24</v>
+      <c r="N10" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -1752,18 +1651,18 @@
         <v>22</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4">
         <v>400</v>
@@ -1771,8 +1670,8 @@
       <c r="G11">
         <v>200</v>
       </c>
-      <c r="N11" t="s">
-        <v>24</v>
+      <c r="N11" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1787,18 +1686,18 @@
         <v>22</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4">
         <v>700</v>
@@ -1806,8 +1705,8 @@
       <c r="G12" s="4">
         <v>350</v>
       </c>
-      <c r="N12" t="s">
-        <v>24</v>
+      <c r="N12" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O12">
         <v>24</v>
@@ -1822,18 +1721,18 @@
         <v>22</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="4">
         <v>600</v>
@@ -1841,19 +1740,25 @@
       <c r="G13">
         <v>300</v>
       </c>
+      <c r="N13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
       <c r="T13" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E14" s="4">
         <v>700</v>
@@ -1861,19 +1766,25 @@
       <c r="G14">
         <v>350</v>
       </c>
+      <c r="N14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
       <c r="T14" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E15" s="4">
         <v>1000</v>
@@ -1881,19 +1792,25 @@
       <c r="G15">
         <v>550</v>
       </c>
+      <c r="N15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
       <c r="T15" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E16" s="4">
         <v>1000</v>
@@ -1901,127 +1818,169 @@
       <c r="G16">
         <v>550</v>
       </c>
+      <c r="N16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
       <c r="T16" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="19">
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4">
         <v>1000</v>
       </c>
+      <c r="N17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
       <c r="T17" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:32" ht="19">
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E18" s="4">
         <v>1500</v>
       </c>
+      <c r="N18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
       <c r="T18" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:32" ht="19">
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E19" s="4">
         <v>2000</v>
       </c>
+      <c r="N19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
       <c r="T19" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:32" ht="19">
       <c r="B20" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E20" s="4">
         <v>1000</v>
       </c>
+      <c r="N20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
       <c r="T20" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:32" ht="19">
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E21" s="4">
         <v>1500</v>
       </c>
+      <c r="N21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
       <c r="T21" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF21" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:32" ht="19">
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E22" s="4">
         <v>2000</v>
       </c>
+      <c r="N22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
       <c r="T22" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:32">
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E23" s="4">
         <v>4500</v>
       </c>
-      <c r="N23" t="s">
-        <v>24</v>
+      <c r="N23" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -2036,18 +1995,18 @@
         <v>22</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:32">
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E24" s="4">
         <v>440</v>
@@ -2055,25 +2014,31 @@
       <c r="G24">
         <v>220</v>
       </c>
+      <c r="N24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
       <c r="T24" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:32">
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E25" s="4">
         <v>2000</v>
       </c>
-      <c r="N25" t="s">
-        <v>24</v>
+      <c r="N25" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2088,15 +2053,15 @@
         <v>22</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:32">
-      <c r="N26" t="s">
-        <v>24</v>
+      <c r="N26" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="O26">
         <v>1</v>
